--- a/DataFolder/EmpDetailsforAutomation.xlsx
+++ b/DataFolder/EmpDetailsforAutomation.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304760FE-A4EF-4A37-B659-1BBED1761516}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{73A0AD38-E3E3-4F31-9BD8-DD0A05DC5357}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="6225" xr2:uid="{E3C95F30-860E-4CD4-915B-9C42FFAC735D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10845" windowHeight="6765" xr2:uid="{E3C95F30-860E-4CD4-915B-9C42FFAC735D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,21 +21,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Hanumanth</t>
-  </si>
-  <si>
-    <t>Sl no.</t>
-  </si>
-  <si>
-    <t>Annpurna</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Ranganath</t>
   </si>
   <si>
-    <t>Emp Name</t>
+    <t>PMSGoalPaln1 for june</t>
+  </si>
+  <si>
+    <t>Annapurna</t>
+  </si>
+  <si>
+    <t>Template 1</t>
   </si>
 </sst>
 </file>
@@ -391,49 +384,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B0035F-6218-4391-B7E9-B8EBA7CAB90C}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
+      <c r="C1" t="s">
+        <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>132</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>111</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>161</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
